--- a/PMI_eXcent_App/static/docs/BDD_causes_racines_et_resolutions.xlsx
+++ b/PMI_eXcent_App/static/docs/BDD_causes_racines_et_resolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33787\OneDrive\Bureau\Aero 5\PMI\Site\Django_PMI_Project\Django_Project_eXcent\PMI_eXcent_App\static\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C242B8-283D-459F-8231-11053B765A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F572E53-E6BC-484B-A0FC-B38E485105C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D17FD9B-7236-43F1-B526-588DD270C4CC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)</t>
   </si>
@@ -225,6 +225,141 @@
   </si>
   <si>
     <t>Indice de la mauvaise utilisation / Indice de la résolution</t>
+  </si>
+  <si>
+    <t>JacXson batteries have not been recharged</t>
+  </si>
+  <si>
+    <t>Controller batteries have not been changed</t>
+  </si>
+  <si>
+    <t>Recharge JacXson batteries</t>
+  </si>
+  <si>
+    <t>Change controller batteries</t>
+  </si>
+  <si>
+    <t>Battery charge/discharge cycles not carried out correctly</t>
+  </si>
+  <si>
+    <t>Battery ageing</t>
+  </si>
+  <si>
+    <t>Replace defective batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interference with another device </t>
+  </si>
+  <si>
+    <t>Stop this device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong use of the JacXson </t>
+  </si>
+  <si>
+    <t>Start the JacXson</t>
+  </si>
+  <si>
+    <t>Wrong use of the JacXson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a mod </t>
+  </si>
+  <si>
+    <t>An emergency stop button is activated</t>
+  </si>
+  <si>
+    <t>Disable it</t>
+  </si>
+  <si>
+    <t>LED flashes quickly</t>
+  </si>
+  <si>
+    <t>LED flashes slowly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deactivate precision mode and press start</t>
+  </si>
+  <si>
+    <t>Turn the key and press the stop button</t>
+  </si>
+  <si>
+    <t>Recipe not selected</t>
+  </si>
+  <si>
+    <t>Wrong recipe</t>
+  </si>
+  <si>
+    <t>Select the correct recipe</t>
+  </si>
+  <si>
+    <t>Select a recipe</t>
+  </si>
+  <si>
+    <t>Depends on the results of the self-diagnostic tool</t>
+  </si>
+  <si>
+    <t>Fan filter clogging</t>
+  </si>
+  <si>
+    <t>Fan malfunction</t>
+  </si>
+  <si>
+    <t>Replace fan filter</t>
+  </si>
+  <si>
+    <t>Replace fan</t>
+  </si>
+  <si>
+    <t>Battery pack disconnection</t>
+  </si>
+  <si>
+    <t>Reconnect the battery pack</t>
+  </si>
+  <si>
+    <t>Lifting brake fault</t>
+  </si>
+  <si>
+    <t>Lifting motor fault</t>
+  </si>
+  <si>
+    <t>Replace the lifting brake</t>
+  </si>
+  <si>
+    <t>Replace the lifting motor</t>
+  </si>
+  <si>
+    <t>Cable pinching/damage</t>
+  </si>
+  <si>
+    <t>Unplugged cable</t>
+  </si>
+  <si>
+    <t>Replace cable</t>
+  </si>
+  <si>
+    <t>Reconnecte cable</t>
+  </si>
+  <si>
+    <t>Releasing the fret disc</t>
+  </si>
+  <si>
+    <t>Tighten the fret (4 N/m)</t>
+  </si>
+  <si>
+    <t>Releasing of pinion from shaft</t>
+  </si>
+  <si>
+    <t>Tighten the pinion (60N/m)</t>
+  </si>
+  <si>
+    <t>Mechanical block</t>
+  </si>
+  <si>
+    <t>Sensor malfunction</t>
+  </si>
+  <si>
+    <t>Remake 0 point</t>
   </si>
 </sst>
 </file>
@@ -630,10 +765,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,9 +778,10 @@
     <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -699,10 +835,18 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -721,9 +865,15 @@
         <v>12</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -741,9 +891,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -761,9 +915,13 @@
         <v>16</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -781,9 +939,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -801,9 +963,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -825,10 +991,18 @@
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -845,9 +1019,13 @@
         <v>8</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -869,10 +1047,18 @@
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -891,9 +1077,15 @@
         <v>29</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -911,9 +1103,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -935,10 +1131,18 @@
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -957,9 +1161,15 @@
         <v>29</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -977,9 +1187,13 @@
         <v>37</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1001,10 +1215,18 @@
       <c r="F16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1021,9 +1243,13 @@
         <v>30</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1045,10 +1271,18 @@
       <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1065,9 +1299,13 @@
         <v>30</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1085,9 +1323,13 @@
         <v>47</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1105,9 +1347,13 @@
         <v>49</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1125,9 +1371,13 @@
         <v>30</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1149,10 +1399,18 @@
       <c r="F23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1171,9 +1429,15 @@
         <v>52</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="J24" s="2"/>
     </row>
   </sheetData>
